--- a/data/pitcher_data/2021/acevedo_domingo.xlsx
+++ b/data/pitcher_data/2021/acevedo_domingo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T211"/>
+  <dimension ref="A1:U211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,20 +511,25 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>inning_topbot</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>at_bat_number</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>pitch_number</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>home_score</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>away_score</t>
         </is>
@@ -589,16 +594,21 @@
       <c r="P2" t="n">
         <v>8</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>65</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>4</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>6</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -651,16 +661,21 @@
       <c r="P3" t="n">
         <v>8</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>65</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>3</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>6</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -713,16 +728,21 @@
       <c r="P4" t="n">
         <v>8</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>65</v>
       </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
       <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
         <v>6</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -775,16 +795,21 @@
       <c r="P5" t="n">
         <v>8</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>65</v>
       </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
       <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
         <v>6</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -847,16 +872,21 @@
       <c r="P6" t="n">
         <v>8</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>64</v>
       </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
       <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
         <v>6</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -909,16 +939,21 @@
       <c r="P7" t="n">
         <v>8</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>64</v>
       </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
       <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
         <v>6</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -973,16 +1008,21 @@
       <c r="P8" t="n">
         <v>8</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>63</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>4</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>6</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1033,16 +1073,21 @@
       <c r="P9" t="n">
         <v>8</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
         <v>63</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>3</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>6</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1093,16 +1138,21 @@
       <c r="P10" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
         <v>63</v>
       </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
       <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
         <v>6</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1153,16 +1203,21 @@
       <c r="P11" t="n">
         <v>8</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
         <v>63</v>
       </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
       <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
         <v>6</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1223,16 +1278,21 @@
       <c r="P12" t="n">
         <v>8</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>62</v>
-      </c>
-      <c r="R12" t="n">
-        <v>6</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
       </c>
       <c r="T12" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1283,16 +1343,21 @@
       <c r="P13" t="n">
         <v>8</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>62</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>5</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>6</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1343,16 +1408,21 @@
       <c r="P14" t="n">
         <v>8</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>62</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>4</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>6</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1403,16 +1473,21 @@
       <c r="P15" t="n">
         <v>8</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>62</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>3</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>6</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1463,16 +1538,21 @@
       <c r="P16" t="n">
         <v>8</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>62</v>
       </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
       <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="n">
         <v>6</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1523,16 +1603,21 @@
       <c r="P17" t="n">
         <v>8</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
         <v>62</v>
       </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
       <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
         <v>6</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1591,16 +1676,21 @@
       <c r="P18" t="n">
         <v>8</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
         <v>61</v>
       </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
       <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
         <v>6</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1657,16 +1747,21 @@
       <c r="P19" t="n">
         <v>8</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>60</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>4</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>5</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1715,16 +1810,21 @@
       <c r="P20" t="n">
         <v>8</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>60</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>3</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>5</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1773,16 +1873,21 @@
       <c r="P21" t="n">
         <v>8</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
         <v>60</v>
       </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
       <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="n">
         <v>5</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1831,16 +1936,21 @@
       <c r="P22" t="n">
         <v>8</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
         <v>60</v>
       </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
       <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
         <v>5</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1899,16 +2009,21 @@
       <c r="P23" t="n">
         <v>8</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
         <v>77</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>7</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>10</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1957,16 +2072,21 @@
       <c r="P24" t="n">
         <v>8</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
         <v>77</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>6</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>10</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2015,16 +2135,21 @@
       <c r="P25" t="n">
         <v>8</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
         <v>77</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>5</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>10</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2073,16 +2198,21 @@
       <c r="P26" t="n">
         <v>8</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
         <v>77</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>4</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>10</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2131,16 +2261,21 @@
       <c r="P27" t="n">
         <v>8</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
         <v>77</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>3</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>10</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2189,16 +2324,21 @@
       <c r="P28" t="n">
         <v>8</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
         <v>77</v>
       </c>
-      <c r="R28" t="n">
-        <v>2</v>
-      </c>
       <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="n">
         <v>10</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2247,16 +2387,21 @@
       <c r="P29" t="n">
         <v>8</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
         <v>77</v>
       </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
       <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
         <v>10</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2317,16 +2462,21 @@
       <c r="P30" t="n">
         <v>8</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>76</v>
       </c>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
       <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
         <v>10</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2385,16 +2535,21 @@
       <c r="P31" t="n">
         <v>8</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
         <v>75</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>8</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>10</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2443,16 +2598,21 @@
       <c r="P32" t="n">
         <v>8</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
         <v>75</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>7</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>10</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2501,16 +2661,21 @@
       <c r="P33" t="n">
         <v>8</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
         <v>75</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>6</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>10</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2559,16 +2724,21 @@
       <c r="P34" t="n">
         <v>8</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
         <v>75</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>5</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>10</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2617,16 +2787,21 @@
       <c r="P35" t="n">
         <v>8</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
         <v>75</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>4</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>10</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2675,16 +2850,21 @@
       <c r="P36" t="n">
         <v>8</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
         <v>75</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>3</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>10</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2733,16 +2913,21 @@
       <c r="P37" t="n">
         <v>8</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
         <v>75</v>
       </c>
-      <c r="R37" t="n">
-        <v>2</v>
-      </c>
       <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="n">
         <v>10</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2791,16 +2976,21 @@
       <c r="P38" t="n">
         <v>8</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
         <v>75</v>
       </c>
-      <c r="R38" t="n">
-        <v>1</v>
-      </c>
       <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
         <v>10</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2859,16 +3049,21 @@
       <c r="P39" t="n">
         <v>8</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
         <v>74</v>
       </c>
-      <c r="R39" t="n">
-        <v>2</v>
-      </c>
       <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="n">
         <v>13</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2917,16 +3112,21 @@
       <c r="P40" t="n">
         <v>8</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
         <v>74</v>
       </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
       <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="n">
         <v>13</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2985,16 +3185,21 @@
       <c r="P41" t="n">
         <v>8</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
         <v>73</v>
       </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
       <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
         <v>13</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3043,16 +3248,21 @@
       <c r="P42" t="n">
         <v>8</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>73</v>
       </c>
-      <c r="R42" t="n">
-        <v>1</v>
-      </c>
       <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
         <v>13</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3111,16 +3321,21 @@
       <c r="P43" t="n">
         <v>8</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
         <v>72</v>
       </c>
-      <c r="R43" t="n">
-        <v>1</v>
-      </c>
       <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
         <v>13</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3181,16 +3396,21 @@
       <c r="P44" t="n">
         <v>9</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>80</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>3</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>14</v>
       </c>
-      <c r="T44" t="n">
+      <c r="U44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3245,16 +3465,21 @@
       <c r="P45" t="n">
         <v>9</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>80</v>
       </c>
-      <c r="R45" t="n">
-        <v>2</v>
-      </c>
       <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="n">
         <v>14</v>
       </c>
-      <c r="T45" t="n">
+      <c r="U45" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3309,16 +3534,21 @@
       <c r="P46" t="n">
         <v>9</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
         <v>80</v>
       </c>
-      <c r="R46" t="n">
-        <v>1</v>
-      </c>
       <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
         <v>14</v>
       </c>
-      <c r="T46" t="n">
+      <c r="U46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3379,16 +3609,21 @@
       <c r="P47" t="n">
         <v>9</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
         <v>79</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>5</v>
       </c>
-      <c r="S47" t="n">
+      <c r="T47" t="n">
         <v>14</v>
       </c>
-      <c r="T47" t="n">
+      <c r="U47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3443,16 +3678,21 @@
       <c r="P48" t="n">
         <v>9</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
         <v>79</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>4</v>
       </c>
-      <c r="S48" t="n">
+      <c r="T48" t="n">
         <v>14</v>
       </c>
-      <c r="T48" t="n">
+      <c r="U48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3507,16 +3747,21 @@
       <c r="P49" t="n">
         <v>9</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
         <v>79</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>3</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>14</v>
       </c>
-      <c r="T49" t="n">
+      <c r="U49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3571,16 +3816,21 @@
       <c r="P50" t="n">
         <v>9</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>79</v>
       </c>
-      <c r="R50" t="n">
-        <v>2</v>
-      </c>
       <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="n">
         <v>14</v>
       </c>
-      <c r="T50" t="n">
+      <c r="U50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3635,16 +3885,21 @@
       <c r="P51" t="n">
         <v>9</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>79</v>
       </c>
-      <c r="R51" t="n">
-        <v>1</v>
-      </c>
       <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
         <v>14</v>
       </c>
-      <c r="T51" t="n">
+      <c r="U51" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3701,16 +3956,21 @@
       <c r="P52" t="n">
         <v>9</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
         <v>78</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>8</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>14</v>
       </c>
-      <c r="T52" t="n">
+      <c r="U52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3763,16 +4023,21 @@
       <c r="P53" t="n">
         <v>9</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
         <v>78</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>7</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>14</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3825,16 +4090,21 @@
       <c r="P54" t="n">
         <v>9</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
         <v>78</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>6</v>
       </c>
-      <c r="S54" t="n">
+      <c r="T54" t="n">
         <v>14</v>
       </c>
-      <c r="T54" t="n">
+      <c r="U54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3887,16 +4157,21 @@
       <c r="P55" t="n">
         <v>9</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
         <v>78</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>5</v>
       </c>
-      <c r="S55" t="n">
+      <c r="T55" t="n">
         <v>14</v>
       </c>
-      <c r="T55" t="n">
+      <c r="U55" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3949,16 +4224,21 @@
       <c r="P56" t="n">
         <v>9</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
         <v>78</v>
       </c>
-      <c r="R56" t="n">
+      <c r="S56" t="n">
         <v>4</v>
       </c>
-      <c r="S56" t="n">
+      <c r="T56" t="n">
         <v>14</v>
       </c>
-      <c r="T56" t="n">
+      <c r="U56" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4011,16 +4291,21 @@
       <c r="P57" t="n">
         <v>9</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
         <v>78</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>3</v>
       </c>
-      <c r="S57" t="n">
+      <c r="T57" t="n">
         <v>14</v>
       </c>
-      <c r="T57" t="n">
+      <c r="U57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4073,16 +4358,21 @@
       <c r="P58" t="n">
         <v>9</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
         <v>78</v>
       </c>
-      <c r="R58" t="n">
-        <v>2</v>
-      </c>
       <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="n">
         <v>14</v>
       </c>
-      <c r="T58" t="n">
+      <c r="U58" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4135,16 +4425,21 @@
       <c r="P59" t="n">
         <v>9</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
         <v>78</v>
       </c>
-      <c r="R59" t="n">
-        <v>1</v>
-      </c>
       <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
         <v>14</v>
       </c>
-      <c r="T59" t="n">
+      <c r="U59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4203,16 +4498,21 @@
       <c r="P60" t="n">
         <v>9</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
         <v>77</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>3</v>
       </c>
-      <c r="S60" t="n">
+      <c r="T60" t="n">
         <v>14</v>
       </c>
-      <c r="T60" t="n">
+      <c r="U60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4265,16 +4565,21 @@
       <c r="P61" t="n">
         <v>9</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
         <v>77</v>
       </c>
-      <c r="R61" t="n">
-        <v>2</v>
-      </c>
       <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="n">
         <v>14</v>
       </c>
-      <c r="T61" t="n">
+      <c r="U61" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4327,16 +4632,21 @@
       <c r="P62" t="n">
         <v>9</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
         <v>77</v>
       </c>
-      <c r="R62" t="n">
-        <v>1</v>
-      </c>
       <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="n">
         <v>14</v>
       </c>
-      <c r="T62" t="n">
+      <c r="U62" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4391,16 +4701,21 @@
       <c r="P63" t="n">
         <v>9</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
         <v>76</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>7</v>
       </c>
-      <c r="S63" t="n">
+      <c r="T63" t="n">
         <v>14</v>
       </c>
-      <c r="T63" t="n">
+      <c r="U63" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4451,16 +4766,21 @@
       <c r="P64" t="n">
         <v>9</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
         <v>76</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>6</v>
       </c>
-      <c r="S64" t="n">
+      <c r="T64" t="n">
         <v>14</v>
       </c>
-      <c r="T64" t="n">
+      <c r="U64" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4511,16 +4831,21 @@
       <c r="P65" t="n">
         <v>9</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
         <v>76</v>
       </c>
-      <c r="R65" t="n">
+      <c r="S65" t="n">
         <v>5</v>
       </c>
-      <c r="S65" t="n">
+      <c r="T65" t="n">
         <v>14</v>
       </c>
-      <c r="T65" t="n">
+      <c r="U65" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4571,16 +4896,21 @@
       <c r="P66" t="n">
         <v>9</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
         <v>76</v>
       </c>
-      <c r="R66" t="n">
+      <c r="S66" t="n">
         <v>4</v>
       </c>
-      <c r="S66" t="n">
+      <c r="T66" t="n">
         <v>14</v>
       </c>
-      <c r="T66" t="n">
+      <c r="U66" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4631,16 +4961,21 @@
       <c r="P67" t="n">
         <v>9</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
         <v>76</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>3</v>
       </c>
-      <c r="S67" t="n">
+      <c r="T67" t="n">
         <v>14</v>
       </c>
-      <c r="T67" t="n">
+      <c r="U67" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4691,16 +5026,21 @@
       <c r="P68" t="n">
         <v>9</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
         <v>76</v>
       </c>
-      <c r="R68" t="n">
-        <v>2</v>
-      </c>
       <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="n">
         <v>14</v>
       </c>
-      <c r="T68" t="n">
+      <c r="U68" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4751,16 +5091,21 @@
       <c r="P69" t="n">
         <v>9</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
         <v>76</v>
       </c>
-      <c r="R69" t="n">
-        <v>1</v>
-      </c>
       <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="n">
         <v>14</v>
       </c>
-      <c r="T69" t="n">
+      <c r="U69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4813,16 +5158,21 @@
       <c r="P70" t="n">
         <v>9</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
         <v>75</v>
       </c>
-      <c r="R70" t="n">
+      <c r="S70" t="n">
         <v>8</v>
       </c>
-      <c r="S70" t="n">
+      <c r="T70" t="n">
         <v>14</v>
       </c>
-      <c r="T70" t="n">
+      <c r="U70" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4871,16 +5221,21 @@
       <c r="P71" t="n">
         <v>9</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
         <v>75</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>7</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>14</v>
       </c>
-      <c r="T71" t="n">
+      <c r="U71" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4929,16 +5284,21 @@
       <c r="P72" t="n">
         <v>9</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
         <v>75</v>
       </c>
-      <c r="R72" t="n">
+      <c r="S72" t="n">
         <v>6</v>
       </c>
-      <c r="S72" t="n">
+      <c r="T72" t="n">
         <v>14</v>
       </c>
-      <c r="T72" t="n">
+      <c r="U72" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4987,16 +5347,21 @@
       <c r="P73" t="n">
         <v>9</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
         <v>75</v>
       </c>
-      <c r="R73" t="n">
+      <c r="S73" t="n">
         <v>5</v>
       </c>
-      <c r="S73" t="n">
+      <c r="T73" t="n">
         <v>14</v>
       </c>
-      <c r="T73" t="n">
+      <c r="U73" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5045,16 +5410,21 @@
       <c r="P74" t="n">
         <v>9</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
         <v>75</v>
       </c>
-      <c r="R74" t="n">
+      <c r="S74" t="n">
         <v>4</v>
       </c>
-      <c r="S74" t="n">
+      <c r="T74" t="n">
         <v>14</v>
       </c>
-      <c r="T74" t="n">
+      <c r="U74" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5103,16 +5473,21 @@
       <c r="P75" t="n">
         <v>9</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
         <v>75</v>
       </c>
-      <c r="R75" t="n">
+      <c r="S75" t="n">
         <v>3</v>
       </c>
-      <c r="S75" t="n">
+      <c r="T75" t="n">
         <v>14</v>
       </c>
-      <c r="T75" t="n">
+      <c r="U75" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5161,16 +5536,21 @@
       <c r="P76" t="n">
         <v>9</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
         <v>75</v>
       </c>
-      <c r="R76" t="n">
-        <v>2</v>
-      </c>
       <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="n">
         <v>14</v>
       </c>
-      <c r="T76" t="n">
+      <c r="U76" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5219,16 +5599,21 @@
       <c r="P77" t="n">
         <v>9</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
         <v>75</v>
       </c>
-      <c r="R77" t="n">
-        <v>1</v>
-      </c>
       <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="n">
         <v>14</v>
       </c>
-      <c r="T77" t="n">
+      <c r="U77" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5287,16 +5672,21 @@
       <c r="P78" t="n">
         <v>9</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
         <v>69</v>
       </c>
-      <c r="R78" t="n">
+      <c r="S78" t="n">
         <v>7</v>
       </c>
-      <c r="S78" t="n">
-        <v>1</v>
-      </c>
       <c r="T78" t="n">
+        <v>1</v>
+      </c>
+      <c r="U78" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5345,16 +5735,21 @@
       <c r="P79" t="n">
         <v>9</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
         <v>69</v>
       </c>
-      <c r="R79" t="n">
+      <c r="S79" t="n">
         <v>6</v>
       </c>
-      <c r="S79" t="n">
-        <v>1</v>
-      </c>
       <c r="T79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5403,16 +5798,21 @@
       <c r="P80" t="n">
         <v>9</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
         <v>69</v>
       </c>
-      <c r="R80" t="n">
+      <c r="S80" t="n">
         <v>5</v>
       </c>
-      <c r="S80" t="n">
-        <v>1</v>
-      </c>
       <c r="T80" t="n">
+        <v>1</v>
+      </c>
+      <c r="U80" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5461,16 +5861,21 @@
       <c r="P81" t="n">
         <v>9</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
         <v>69</v>
       </c>
-      <c r="R81" t="n">
+      <c r="S81" t="n">
         <v>4</v>
       </c>
-      <c r="S81" t="n">
-        <v>1</v>
-      </c>
       <c r="T81" t="n">
+        <v>1</v>
+      </c>
+      <c r="U81" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5519,16 +5924,21 @@
       <c r="P82" t="n">
         <v>9</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
         <v>69</v>
       </c>
-      <c r="R82" t="n">
+      <c r="S82" t="n">
         <v>3</v>
       </c>
-      <c r="S82" t="n">
-        <v>1</v>
-      </c>
       <c r="T82" t="n">
+        <v>1</v>
+      </c>
+      <c r="U82" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5577,16 +5987,21 @@
       <c r="P83" t="n">
         <v>9</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
         <v>69</v>
       </c>
-      <c r="R83" t="n">
-        <v>2</v>
-      </c>
       <c r="S83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T83" t="n">
+        <v>1</v>
+      </c>
+      <c r="U83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5635,16 +6050,21 @@
       <c r="P84" t="n">
         <v>9</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
         <v>69</v>
       </c>
-      <c r="R84" t="n">
-        <v>1</v>
-      </c>
       <c r="S84" t="n">
         <v>1</v>
       </c>
       <c r="T84" t="n">
+        <v>1</v>
+      </c>
+      <c r="U84" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5703,16 +6123,21 @@
       <c r="P85" t="n">
         <v>9</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
         <v>68</v>
       </c>
-      <c r="R85" t="n">
+      <c r="S85" t="n">
         <v>3</v>
       </c>
-      <c r="S85" t="n">
-        <v>1</v>
-      </c>
       <c r="T85" t="n">
+        <v>1</v>
+      </c>
+      <c r="U85" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5761,16 +6186,21 @@
       <c r="P86" t="n">
         <v>9</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
         <v>68</v>
       </c>
-      <c r="R86" t="n">
-        <v>2</v>
-      </c>
       <c r="S86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T86" t="n">
+        <v>1</v>
+      </c>
+      <c r="U86" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5819,16 +6249,21 @@
       <c r="P87" t="n">
         <v>9</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
         <v>68</v>
       </c>
-      <c r="R87" t="n">
-        <v>1</v>
-      </c>
       <c r="S87" t="n">
         <v>1</v>
       </c>
       <c r="T87" t="n">
+        <v>1</v>
+      </c>
+      <c r="U87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5883,16 +6318,21 @@
       <c r="P88" t="n">
         <v>9</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
         <v>67</v>
       </c>
-      <c r="R88" t="n">
+      <c r="S88" t="n">
         <v>5</v>
       </c>
-      <c r="S88" t="n">
-        <v>1</v>
-      </c>
       <c r="T88" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5941,16 +6381,21 @@
       <c r="P89" t="n">
         <v>9</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
         <v>67</v>
       </c>
-      <c r="R89" t="n">
+      <c r="S89" t="n">
         <v>4</v>
       </c>
-      <c r="S89" t="n">
-        <v>1</v>
-      </c>
       <c r="T89" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5999,16 +6444,21 @@
       <c r="P90" t="n">
         <v>9</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
         <v>67</v>
       </c>
-      <c r="R90" t="n">
+      <c r="S90" t="n">
         <v>3</v>
       </c>
-      <c r="S90" t="n">
-        <v>1</v>
-      </c>
       <c r="T90" t="n">
+        <v>1</v>
+      </c>
+      <c r="U90" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6057,16 +6507,21 @@
       <c r="P91" t="n">
         <v>9</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
         <v>67</v>
       </c>
-      <c r="R91" t="n">
-        <v>2</v>
-      </c>
       <c r="S91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T91" t="n">
+        <v>1</v>
+      </c>
+      <c r="U91" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6115,16 +6570,21 @@
       <c r="P92" t="n">
         <v>9</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
         <v>67</v>
       </c>
-      <c r="R92" t="n">
-        <v>1</v>
-      </c>
       <c r="S92" t="n">
         <v>1</v>
       </c>
       <c r="T92" t="n">
+        <v>1</v>
+      </c>
+      <c r="U92" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6181,16 +6641,21 @@
       <c r="P93" t="n">
         <v>7</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>52</v>
       </c>
-      <c r="R93" t="n">
+      <c r="S93" t="n">
         <v>4</v>
       </c>
-      <c r="S93" t="n">
-        <v>1</v>
-      </c>
       <c r="T93" t="n">
+        <v>1</v>
+      </c>
+      <c r="U93" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6241,16 +6706,21 @@
       <c r="P94" t="n">
         <v>7</v>
       </c>
-      <c r="Q94" t="n">
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
         <v>52</v>
       </c>
-      <c r="R94" t="n">
+      <c r="S94" t="n">
         <v>3</v>
       </c>
-      <c r="S94" t="n">
-        <v>1</v>
-      </c>
       <c r="T94" t="n">
+        <v>1</v>
+      </c>
+      <c r="U94" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6301,16 +6771,21 @@
       <c r="P95" t="n">
         <v>7</v>
       </c>
-      <c r="Q95" t="n">
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
         <v>52</v>
       </c>
-      <c r="R95" t="n">
-        <v>2</v>
-      </c>
       <c r="S95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T95" t="n">
+        <v>1</v>
+      </c>
+      <c r="U95" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6361,16 +6836,21 @@
       <c r="P96" t="n">
         <v>7</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
         <v>52</v>
       </c>
-      <c r="R96" t="n">
-        <v>1</v>
-      </c>
       <c r="S96" t="n">
         <v>1</v>
       </c>
       <c r="T96" t="n">
+        <v>1</v>
+      </c>
+      <c r="U96" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6431,16 +6911,21 @@
       <c r="P97" t="n">
         <v>7</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
         <v>51</v>
       </c>
-      <c r="R97" t="n">
-        <v>1</v>
-      </c>
       <c r="S97" t="n">
         <v>1</v>
       </c>
       <c r="T97" t="n">
+        <v>1</v>
+      </c>
+      <c r="U97" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6499,16 +6984,21 @@
       <c r="P98" t="n">
         <v>7</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
         <v>50</v>
       </c>
-      <c r="R98" t="n">
+      <c r="S98" t="n">
         <v>3</v>
       </c>
-      <c r="S98" t="n">
-        <v>1</v>
-      </c>
       <c r="T98" t="n">
+        <v>1</v>
+      </c>
+      <c r="U98" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6557,16 +7047,21 @@
       <c r="P99" t="n">
         <v>7</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
         <v>50</v>
       </c>
-      <c r="R99" t="n">
-        <v>2</v>
-      </c>
       <c r="S99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6615,16 +7110,21 @@
       <c r="P100" t="n">
         <v>7</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
         <v>50</v>
       </c>
-      <c r="R100" t="n">
-        <v>1</v>
-      </c>
       <c r="S100" t="n">
         <v>1</v>
       </c>
       <c r="T100" t="n">
+        <v>1</v>
+      </c>
+      <c r="U100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6679,16 +7179,21 @@
       <c r="P101" t="n">
         <v>7</v>
       </c>
-      <c r="Q101" t="n">
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
         <v>49</v>
       </c>
-      <c r="R101" t="n">
+      <c r="S101" t="n">
         <v>3</v>
       </c>
-      <c r="S101" t="n">
-        <v>1</v>
-      </c>
       <c r="T101" t="n">
+        <v>1</v>
+      </c>
+      <c r="U101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6737,16 +7242,21 @@
       <c r="P102" t="n">
         <v>7</v>
       </c>
-      <c r="Q102" t="n">
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
         <v>49</v>
       </c>
-      <c r="R102" t="n">
-        <v>2</v>
-      </c>
       <c r="S102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6795,16 +7305,21 @@
       <c r="P103" t="n">
         <v>7</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
         <v>49</v>
       </c>
-      <c r="R103" t="n">
-        <v>1</v>
-      </c>
       <c r="S103" t="n">
         <v>1</v>
       </c>
       <c r="T103" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6863,16 +7378,21 @@
       <c r="P104" t="n">
         <v>6</v>
       </c>
-      <c r="Q104" t="n">
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
         <v>45</v>
       </c>
-      <c r="R104" t="n">
-        <v>2</v>
-      </c>
       <c r="S104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6921,16 +7441,21 @@
       <c r="P105" t="n">
         <v>6</v>
       </c>
-      <c r="Q105" t="n">
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
         <v>45</v>
       </c>
-      <c r="R105" t="n">
-        <v>1</v>
-      </c>
       <c r="S105" t="n">
         <v>1</v>
       </c>
       <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6989,16 +7514,21 @@
       <c r="P106" t="n">
         <v>6</v>
       </c>
-      <c r="Q106" t="n">
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
         <v>44</v>
       </c>
-      <c r="R106" t="n">
-        <v>2</v>
-      </c>
       <c r="S106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T106" t="n">
+        <v>1</v>
+      </c>
+      <c r="U106" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7047,16 +7577,21 @@
       <c r="P107" t="n">
         <v>6</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
         <v>44</v>
       </c>
-      <c r="R107" t="n">
-        <v>1</v>
-      </c>
       <c r="S107" t="n">
         <v>1</v>
       </c>
       <c r="T107" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7115,16 +7650,21 @@
       <c r="P108" t="n">
         <v>6</v>
       </c>
-      <c r="Q108" t="n">
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
         <v>43</v>
       </c>
-      <c r="R108" t="n">
+      <c r="S108" t="n">
         <v>3</v>
       </c>
-      <c r="S108" t="n">
-        <v>1</v>
-      </c>
       <c r="T108" t="n">
+        <v>1</v>
+      </c>
+      <c r="U108" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7173,16 +7713,21 @@
       <c r="P109" t="n">
         <v>6</v>
       </c>
-      <c r="Q109" t="n">
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
         <v>43</v>
       </c>
-      <c r="R109" t="n">
-        <v>2</v>
-      </c>
       <c r="S109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T109" t="n">
+        <v>1</v>
+      </c>
+      <c r="U109" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7231,16 +7776,21 @@
       <c r="P110" t="n">
         <v>6</v>
       </c>
-      <c r="Q110" t="n">
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
         <v>43</v>
       </c>
-      <c r="R110" t="n">
-        <v>1</v>
-      </c>
       <c r="S110" t="n">
         <v>1</v>
       </c>
       <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7299,16 +7849,21 @@
       <c r="P111" t="n">
         <v>8</v>
       </c>
-      <c r="Q111" t="n">
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
         <v>78</v>
       </c>
-      <c r="R111" t="n">
+      <c r="S111" t="n">
         <v>6</v>
       </c>
-      <c r="S111" t="n">
+      <c r="T111" t="n">
         <v>10</v>
       </c>
-      <c r="T111" t="n">
+      <c r="U111" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7357,16 +7912,21 @@
       <c r="P112" t="n">
         <v>8</v>
       </c>
-      <c r="Q112" t="n">
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
         <v>78</v>
       </c>
-      <c r="R112" t="n">
+      <c r="S112" t="n">
         <v>5</v>
       </c>
-      <c r="S112" t="n">
+      <c r="T112" t="n">
         <v>10</v>
       </c>
-      <c r="T112" t="n">
+      <c r="U112" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7415,16 +7975,21 @@
       <c r="P113" t="n">
         <v>8</v>
       </c>
-      <c r="Q113" t="n">
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
         <v>78</v>
       </c>
-      <c r="R113" t="n">
+      <c r="S113" t="n">
         <v>4</v>
       </c>
-      <c r="S113" t="n">
+      <c r="T113" t="n">
         <v>10</v>
       </c>
-      <c r="T113" t="n">
+      <c r="U113" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7473,16 +8038,21 @@
       <c r="P114" t="n">
         <v>8</v>
       </c>
-      <c r="Q114" t="n">
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
         <v>78</v>
       </c>
-      <c r="R114" t="n">
+      <c r="S114" t="n">
         <v>3</v>
       </c>
-      <c r="S114" t="n">
+      <c r="T114" t="n">
         <v>10</v>
       </c>
-      <c r="T114" t="n">
+      <c r="U114" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7531,16 +8101,21 @@
       <c r="P115" t="n">
         <v>8</v>
       </c>
-      <c r="Q115" t="n">
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
         <v>78</v>
       </c>
-      <c r="R115" t="n">
-        <v>2</v>
-      </c>
       <c r="S115" t="n">
+        <v>2</v>
+      </c>
+      <c r="T115" t="n">
         <v>10</v>
       </c>
-      <c r="T115" t="n">
+      <c r="U115" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7589,16 +8164,21 @@
       <c r="P116" t="n">
         <v>8</v>
       </c>
-      <c r="Q116" t="n">
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
         <v>78</v>
       </c>
-      <c r="R116" t="n">
-        <v>1</v>
-      </c>
       <c r="S116" t="n">
+        <v>1</v>
+      </c>
+      <c r="T116" t="n">
         <v>10</v>
       </c>
-      <c r="T116" t="n">
+      <c r="U116" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7657,16 +8237,21 @@
       <c r="P117" t="n">
         <v>8</v>
       </c>
-      <c r="Q117" t="n">
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
         <v>77</v>
       </c>
-      <c r="R117" t="n">
+      <c r="S117" t="n">
         <v>5</v>
       </c>
-      <c r="S117" t="n">
+      <c r="T117" t="n">
         <v>10</v>
       </c>
-      <c r="T117" t="n">
+      <c r="U117" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7715,16 +8300,21 @@
       <c r="P118" t="n">
         <v>8</v>
       </c>
-      <c r="Q118" t="n">
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
         <v>77</v>
       </c>
-      <c r="R118" t="n">
+      <c r="S118" t="n">
         <v>4</v>
       </c>
-      <c r="S118" t="n">
+      <c r="T118" t="n">
         <v>10</v>
       </c>
-      <c r="T118" t="n">
+      <c r="U118" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7773,16 +8363,21 @@
       <c r="P119" t="n">
         <v>8</v>
       </c>
-      <c r="Q119" t="n">
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
         <v>77</v>
       </c>
-      <c r="R119" t="n">
+      <c r="S119" t="n">
         <v>3</v>
       </c>
-      <c r="S119" t="n">
+      <c r="T119" t="n">
         <v>10</v>
       </c>
-      <c r="T119" t="n">
+      <c r="U119" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7831,16 +8426,21 @@
       <c r="P120" t="n">
         <v>8</v>
       </c>
-      <c r="Q120" t="n">
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
         <v>77</v>
       </c>
-      <c r="R120" t="n">
-        <v>2</v>
-      </c>
       <c r="S120" t="n">
+        <v>2</v>
+      </c>
+      <c r="T120" t="n">
         <v>10</v>
       </c>
-      <c r="T120" t="n">
+      <c r="U120" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7889,16 +8489,21 @@
       <c r="P121" t="n">
         <v>8</v>
       </c>
-      <c r="Q121" t="n">
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
         <v>77</v>
       </c>
-      <c r="R121" t="n">
-        <v>1</v>
-      </c>
       <c r="S121" t="n">
+        <v>1</v>
+      </c>
+      <c r="T121" t="n">
         <v>10</v>
       </c>
-      <c r="T121" t="n">
+      <c r="U121" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7957,16 +8562,21 @@
       <c r="P122" t="n">
         <v>8</v>
       </c>
-      <c r="Q122" t="n">
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
         <v>76</v>
       </c>
-      <c r="R122" t="n">
+      <c r="S122" t="n">
         <v>3</v>
       </c>
-      <c r="S122" t="n">
+      <c r="T122" t="n">
         <v>10</v>
       </c>
-      <c r="T122" t="n">
+      <c r="U122" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8015,16 +8625,21 @@
       <c r="P123" t="n">
         <v>8</v>
       </c>
-      <c r="Q123" t="n">
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
         <v>76</v>
       </c>
-      <c r="R123" t="n">
-        <v>2</v>
-      </c>
       <c r="S123" t="n">
+        <v>2</v>
+      </c>
+      <c r="T123" t="n">
         <v>10</v>
       </c>
-      <c r="T123" t="n">
+      <c r="U123" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8073,16 +8688,21 @@
       <c r="P124" t="n">
         <v>8</v>
       </c>
-      <c r="Q124" t="n">
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
         <v>76</v>
       </c>
-      <c r="R124" t="n">
-        <v>1</v>
-      </c>
       <c r="S124" t="n">
+        <v>1</v>
+      </c>
+      <c r="T124" t="n">
         <v>10</v>
       </c>
-      <c r="T124" t="n">
+      <c r="U124" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8137,16 +8757,21 @@
       <c r="P125" t="n">
         <v>6</v>
       </c>
-      <c r="Q125" t="n">
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
         <v>50</v>
       </c>
-      <c r="R125" t="n">
+      <c r="S125" t="n">
         <v>3</v>
       </c>
-      <c r="S125" t="n">
-        <v>0</v>
-      </c>
       <c r="T125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8195,16 +8820,21 @@
       <c r="P126" t="n">
         <v>6</v>
       </c>
-      <c r="Q126" t="n">
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
         <v>50</v>
       </c>
-      <c r="R126" t="n">
-        <v>2</v>
-      </c>
       <c r="S126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T126" t="n">
+        <v>0</v>
+      </c>
+      <c r="U126" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8253,16 +8883,21 @@
       <c r="P127" t="n">
         <v>6</v>
       </c>
-      <c r="Q127" t="n">
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
         <v>50</v>
       </c>
-      <c r="R127" t="n">
-        <v>1</v>
-      </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8323,16 +8958,21 @@
       <c r="P128" t="n">
         <v>6</v>
       </c>
-      <c r="Q128" t="n">
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
         <v>49</v>
       </c>
-      <c r="R128" t="n">
+      <c r="S128" t="n">
         <v>3</v>
       </c>
-      <c r="S128" t="n">
-        <v>0</v>
-      </c>
       <c r="T128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8383,16 +9023,21 @@
       <c r="P129" t="n">
         <v>6</v>
       </c>
-      <c r="Q129" t="n">
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
         <v>49</v>
       </c>
-      <c r="R129" t="n">
-        <v>2</v>
-      </c>
       <c r="S129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T129" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8443,16 +9088,21 @@
       <c r="P130" t="n">
         <v>6</v>
       </c>
-      <c r="Q130" t="n">
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
         <v>49</v>
       </c>
-      <c r="R130" t="n">
-        <v>1</v>
-      </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8511,16 +9161,21 @@
       <c r="P131" t="n">
         <v>6</v>
       </c>
-      <c r="Q131" t="n">
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
         <v>48</v>
       </c>
-      <c r="R131" t="n">
+      <c r="S131" t="n">
         <v>4</v>
       </c>
-      <c r="S131" t="n">
-        <v>0</v>
-      </c>
       <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8569,16 +9224,21 @@
       <c r="P132" t="n">
         <v>6</v>
       </c>
-      <c r="Q132" t="n">
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
         <v>48</v>
       </c>
-      <c r="R132" t="n">
+      <c r="S132" t="n">
         <v>3</v>
       </c>
-      <c r="S132" t="n">
-        <v>0</v>
-      </c>
       <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8627,16 +9287,21 @@
       <c r="P133" t="n">
         <v>6</v>
       </c>
-      <c r="Q133" t="n">
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
         <v>48</v>
       </c>
-      <c r="R133" t="n">
-        <v>2</v>
-      </c>
       <c r="S133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8685,16 +9350,21 @@
       <c r="P134" t="n">
         <v>6</v>
       </c>
-      <c r="Q134" t="n">
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
         <v>48</v>
       </c>
-      <c r="R134" t="n">
-        <v>1</v>
-      </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8751,16 +9421,21 @@
       <c r="P135" t="n">
         <v>6</v>
       </c>
-      <c r="Q135" t="n">
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
         <v>47</v>
       </c>
-      <c r="R135" t="n">
+      <c r="S135" t="n">
         <v>5</v>
       </c>
-      <c r="S135" t="n">
-        <v>0</v>
-      </c>
       <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8809,16 +9484,21 @@
       <c r="P136" t="n">
         <v>6</v>
       </c>
-      <c r="Q136" t="n">
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
         <v>47</v>
       </c>
-      <c r="R136" t="n">
+      <c r="S136" t="n">
         <v>4</v>
       </c>
-      <c r="S136" t="n">
-        <v>0</v>
-      </c>
       <c r="T136" t="n">
+        <v>0</v>
+      </c>
+      <c r="U136" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8867,16 +9547,21 @@
       <c r="P137" t="n">
         <v>6</v>
       </c>
-      <c r="Q137" t="n">
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
         <v>47</v>
       </c>
-      <c r="R137" t="n">
+      <c r="S137" t="n">
         <v>3</v>
       </c>
-      <c r="S137" t="n">
-        <v>0</v>
-      </c>
       <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8925,16 +9610,21 @@
       <c r="P138" t="n">
         <v>6</v>
       </c>
-      <c r="Q138" t="n">
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
         <v>47</v>
       </c>
-      <c r="R138" t="n">
-        <v>2</v>
-      </c>
       <c r="S138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T138" t="n">
+        <v>0</v>
+      </c>
+      <c r="U138" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8983,16 +9673,21 @@
       <c r="P139" t="n">
         <v>6</v>
       </c>
-      <c r="Q139" t="n">
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
         <v>47</v>
       </c>
-      <c r="R139" t="n">
-        <v>1</v>
-      </c>
       <c r="S139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9051,16 +9746,21 @@
       <c r="P140" t="n">
         <v>9</v>
       </c>
-      <c r="Q140" t="n">
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
         <v>67</v>
       </c>
-      <c r="R140" t="n">
+      <c r="S140" t="n">
         <v>3</v>
       </c>
-      <c r="S140" t="n">
-        <v>2</v>
-      </c>
       <c r="T140" t="n">
+        <v>2</v>
+      </c>
+      <c r="U140" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9109,16 +9809,21 @@
       <c r="P141" t="n">
         <v>9</v>
       </c>
-      <c r="Q141" t="n">
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
         <v>67</v>
       </c>
-      <c r="R141" t="n">
-        <v>2</v>
-      </c>
       <c r="S141" t="n">
         <v>2</v>
       </c>
       <c r="T141" t="n">
+        <v>2</v>
+      </c>
+      <c r="U141" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9167,16 +9872,21 @@
       <c r="P142" t="n">
         <v>9</v>
       </c>
-      <c r="Q142" t="n">
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
         <v>67</v>
       </c>
-      <c r="R142" t="n">
-        <v>1</v>
-      </c>
       <c r="S142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T142" t="n">
+        <v>2</v>
+      </c>
+      <c r="U142" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9231,16 +9941,21 @@
       <c r="P143" t="n">
         <v>9</v>
       </c>
-      <c r="Q143" t="n">
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
         <v>66</v>
       </c>
-      <c r="R143" t="n">
+      <c r="S143" t="n">
         <v>5</v>
       </c>
-      <c r="S143" t="n">
-        <v>2</v>
-      </c>
       <c r="T143" t="n">
+        <v>2</v>
+      </c>
+      <c r="U143" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9289,16 +10004,21 @@
       <c r="P144" t="n">
         <v>9</v>
       </c>
-      <c r="Q144" t="n">
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
         <v>66</v>
       </c>
-      <c r="R144" t="n">
+      <c r="S144" t="n">
         <v>4</v>
       </c>
-      <c r="S144" t="n">
-        <v>2</v>
-      </c>
       <c r="T144" t="n">
+        <v>2</v>
+      </c>
+      <c r="U144" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9347,16 +10067,21 @@
       <c r="P145" t="n">
         <v>9</v>
       </c>
-      <c r="Q145" t="n">
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
         <v>66</v>
       </c>
-      <c r="R145" t="n">
+      <c r="S145" t="n">
         <v>3</v>
       </c>
-      <c r="S145" t="n">
-        <v>2</v>
-      </c>
       <c r="T145" t="n">
+        <v>2</v>
+      </c>
+      <c r="U145" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9405,16 +10130,21 @@
       <c r="P146" t="n">
         <v>9</v>
       </c>
-      <c r="Q146" t="n">
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
         <v>66</v>
       </c>
-      <c r="R146" t="n">
-        <v>2</v>
-      </c>
       <c r="S146" t="n">
         <v>2</v>
       </c>
       <c r="T146" t="n">
+        <v>2</v>
+      </c>
+      <c r="U146" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9463,16 +10193,21 @@
       <c r="P147" t="n">
         <v>9</v>
       </c>
-      <c r="Q147" t="n">
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
         <v>66</v>
       </c>
-      <c r="R147" t="n">
-        <v>1</v>
-      </c>
       <c r="S147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T147" t="n">
+        <v>2</v>
+      </c>
+      <c r="U147" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9531,16 +10266,21 @@
       <c r="P148" t="n">
         <v>9</v>
       </c>
-      <c r="Q148" t="n">
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
         <v>65</v>
       </c>
-      <c r="R148" t="n">
+      <c r="S148" t="n">
         <v>7</v>
       </c>
-      <c r="S148" t="n">
-        <v>2</v>
-      </c>
       <c r="T148" t="n">
+        <v>2</v>
+      </c>
+      <c r="U148" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9591,16 +10331,21 @@
       <c r="P149" t="n">
         <v>9</v>
       </c>
-      <c r="Q149" t="n">
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
         <v>65</v>
       </c>
-      <c r="R149" t="n">
+      <c r="S149" t="n">
         <v>6</v>
       </c>
-      <c r="S149" t="n">
-        <v>2</v>
-      </c>
       <c r="T149" t="n">
+        <v>2</v>
+      </c>
+      <c r="U149" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9651,16 +10396,21 @@
       <c r="P150" t="n">
         <v>9</v>
       </c>
-      <c r="Q150" t="n">
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
         <v>65</v>
       </c>
-      <c r="R150" t="n">
+      <c r="S150" t="n">
         <v>5</v>
       </c>
-      <c r="S150" t="n">
-        <v>2</v>
-      </c>
       <c r="T150" t="n">
+        <v>2</v>
+      </c>
+      <c r="U150" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9711,16 +10461,21 @@
       <c r="P151" t="n">
         <v>9</v>
       </c>
-      <c r="Q151" t="n">
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
         <v>65</v>
       </c>
-      <c r="R151" t="n">
+      <c r="S151" t="n">
         <v>4</v>
       </c>
-      <c r="S151" t="n">
-        <v>2</v>
-      </c>
       <c r="T151" t="n">
+        <v>2</v>
+      </c>
+      <c r="U151" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9771,16 +10526,21 @@
       <c r="P152" t="n">
         <v>9</v>
       </c>
-      <c r="Q152" t="n">
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
         <v>65</v>
       </c>
-      <c r="R152" t="n">
+      <c r="S152" t="n">
         <v>3</v>
       </c>
-      <c r="S152" t="n">
-        <v>2</v>
-      </c>
       <c r="T152" t="n">
+        <v>2</v>
+      </c>
+      <c r="U152" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9831,16 +10591,21 @@
       <c r="P153" t="n">
         <v>9</v>
       </c>
-      <c r="Q153" t="n">
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
         <v>65</v>
       </c>
-      <c r="R153" t="n">
-        <v>2</v>
-      </c>
       <c r="S153" t="n">
         <v>2</v>
       </c>
       <c r="T153" t="n">
+        <v>2</v>
+      </c>
+      <c r="U153" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9891,16 +10656,21 @@
       <c r="P154" t="n">
         <v>9</v>
       </c>
-      <c r="Q154" t="n">
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
         <v>65</v>
       </c>
-      <c r="R154" t="n">
-        <v>1</v>
-      </c>
       <c r="S154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T154" t="n">
+        <v>2</v>
+      </c>
+      <c r="U154" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9959,16 +10729,21 @@
       <c r="P155" t="n">
         <v>9</v>
       </c>
-      <c r="Q155" t="n">
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
         <v>64</v>
       </c>
-      <c r="R155" t="n">
+      <c r="S155" t="n">
         <v>4</v>
       </c>
-      <c r="S155" t="n">
-        <v>2</v>
-      </c>
       <c r="T155" t="n">
+        <v>2</v>
+      </c>
+      <c r="U155" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10017,16 +10792,21 @@
       <c r="P156" t="n">
         <v>9</v>
       </c>
-      <c r="Q156" t="n">
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
         <v>64</v>
       </c>
-      <c r="R156" t="n">
+      <c r="S156" t="n">
         <v>3</v>
       </c>
-      <c r="S156" t="n">
-        <v>2</v>
-      </c>
       <c r="T156" t="n">
+        <v>2</v>
+      </c>
+      <c r="U156" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10075,16 +10855,21 @@
       <c r="P157" t="n">
         <v>9</v>
       </c>
-      <c r="Q157" t="n">
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
         <v>64</v>
       </c>
-      <c r="R157" t="n">
-        <v>2</v>
-      </c>
       <c r="S157" t="n">
         <v>2</v>
       </c>
       <c r="T157" t="n">
+        <v>2</v>
+      </c>
+      <c r="U157" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10133,16 +10918,21 @@
       <c r="P158" t="n">
         <v>9</v>
       </c>
-      <c r="Q158" t="n">
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
         <v>64</v>
       </c>
-      <c r="R158" t="n">
-        <v>1</v>
-      </c>
       <c r="S158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T158" t="n">
+        <v>2</v>
+      </c>
+      <c r="U158" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10201,16 +10991,21 @@
       <c r="P159" t="n">
         <v>9</v>
       </c>
-      <c r="Q159" t="n">
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
         <v>63</v>
       </c>
-      <c r="R159" t="n">
+      <c r="S159" t="n">
         <v>3</v>
       </c>
-      <c r="S159" t="n">
-        <v>2</v>
-      </c>
       <c r="T159" t="n">
+        <v>2</v>
+      </c>
+      <c r="U159" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10259,16 +11054,21 @@
       <c r="P160" t="n">
         <v>9</v>
       </c>
-      <c r="Q160" t="n">
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
         <v>63</v>
       </c>
-      <c r="R160" t="n">
-        <v>2</v>
-      </c>
       <c r="S160" t="n">
         <v>2</v>
       </c>
       <c r="T160" t="n">
+        <v>2</v>
+      </c>
+      <c r="U160" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10317,16 +11117,21 @@
       <c r="P161" t="n">
         <v>9</v>
       </c>
-      <c r="Q161" t="n">
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
         <v>63</v>
       </c>
-      <c r="R161" t="n">
-        <v>1</v>
-      </c>
       <c r="S161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T161" t="n">
+        <v>2</v>
+      </c>
+      <c r="U161" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10383,16 +11188,21 @@
       <c r="P162" t="n">
         <v>8</v>
       </c>
-      <c r="Q162" t="n">
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
         <v>73</v>
       </c>
-      <c r="R162" t="n">
+      <c r="S162" t="n">
         <v>6</v>
       </c>
-      <c r="S162" t="n">
+      <c r="T162" t="n">
         <v>8</v>
       </c>
-      <c r="T162" t="n">
+      <c r="U162" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10443,16 +11253,21 @@
       <c r="P163" t="n">
         <v>8</v>
       </c>
-      <c r="Q163" t="n">
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
         <v>73</v>
       </c>
-      <c r="R163" t="n">
+      <c r="S163" t="n">
         <v>5</v>
       </c>
-      <c r="S163" t="n">
+      <c r="T163" t="n">
         <v>8</v>
       </c>
-      <c r="T163" t="n">
+      <c r="U163" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10503,16 +11318,21 @@
       <c r="P164" t="n">
         <v>8</v>
       </c>
-      <c r="Q164" t="n">
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
         <v>73</v>
       </c>
-      <c r="R164" t="n">
+      <c r="S164" t="n">
         <v>4</v>
       </c>
-      <c r="S164" t="n">
+      <c r="T164" t="n">
         <v>8</v>
       </c>
-      <c r="T164" t="n">
+      <c r="U164" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10563,16 +11383,21 @@
       <c r="P165" t="n">
         <v>8</v>
       </c>
-      <c r="Q165" t="n">
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
         <v>73</v>
       </c>
-      <c r="R165" t="n">
+      <c r="S165" t="n">
         <v>3</v>
       </c>
-      <c r="S165" t="n">
+      <c r="T165" t="n">
         <v>8</v>
       </c>
-      <c r="T165" t="n">
+      <c r="U165" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10623,16 +11448,21 @@
       <c r="P166" t="n">
         <v>8</v>
       </c>
-      <c r="Q166" t="n">
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
         <v>73</v>
       </c>
-      <c r="R166" t="n">
-        <v>2</v>
-      </c>
       <c r="S166" t="n">
+        <v>2</v>
+      </c>
+      <c r="T166" t="n">
         <v>8</v>
       </c>
-      <c r="T166" t="n">
+      <c r="U166" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10683,16 +11513,21 @@
       <c r="P167" t="n">
         <v>8</v>
       </c>
-      <c r="Q167" t="n">
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
         <v>73</v>
       </c>
-      <c r="R167" t="n">
-        <v>1</v>
-      </c>
       <c r="S167" t="n">
+        <v>1</v>
+      </c>
+      <c r="T167" t="n">
         <v>8</v>
       </c>
-      <c r="T167" t="n">
+      <c r="U167" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10753,16 +11588,21 @@
       <c r="P168" t="n">
         <v>8</v>
       </c>
-      <c r="Q168" t="n">
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
         <v>72</v>
       </c>
-      <c r="R168" t="n">
-        <v>2</v>
-      </c>
       <c r="S168" t="n">
+        <v>2</v>
+      </c>
+      <c r="T168" t="n">
         <v>8</v>
       </c>
-      <c r="T168" t="n">
+      <c r="U168" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10813,16 +11653,21 @@
       <c r="P169" t="n">
         <v>8</v>
       </c>
-      <c r="Q169" t="n">
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
         <v>72</v>
       </c>
-      <c r="R169" t="n">
-        <v>1</v>
-      </c>
       <c r="S169" t="n">
+        <v>1</v>
+      </c>
+      <c r="T169" t="n">
         <v>8</v>
       </c>
-      <c r="T169" t="n">
+      <c r="U169" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10881,16 +11726,21 @@
       <c r="P170" t="n">
         <v>8</v>
       </c>
-      <c r="Q170" t="n">
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
         <v>71</v>
       </c>
-      <c r="R170" t="n">
+      <c r="S170" t="n">
         <v>4</v>
       </c>
-      <c r="S170" t="n">
+      <c r="T170" t="n">
         <v>8</v>
       </c>
-      <c r="T170" t="n">
+      <c r="U170" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10939,16 +11789,21 @@
       <c r="P171" t="n">
         <v>8</v>
       </c>
-      <c r="Q171" t="n">
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
         <v>71</v>
       </c>
-      <c r="R171" t="n">
+      <c r="S171" t="n">
         <v>3</v>
       </c>
-      <c r="S171" t="n">
+      <c r="T171" t="n">
         <v>8</v>
       </c>
-      <c r="T171" t="n">
+      <c r="U171" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10997,16 +11852,21 @@
       <c r="P172" t="n">
         <v>8</v>
       </c>
-      <c r="Q172" t="n">
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
         <v>71</v>
       </c>
-      <c r="R172" t="n">
-        <v>2</v>
-      </c>
       <c r="S172" t="n">
+        <v>2</v>
+      </c>
+      <c r="T172" t="n">
         <v>8</v>
       </c>
-      <c r="T172" t="n">
+      <c r="U172" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11055,16 +11915,21 @@
       <c r="P173" t="n">
         <v>8</v>
       </c>
-      <c r="Q173" t="n">
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
         <v>71</v>
       </c>
-      <c r="R173" t="n">
-        <v>1</v>
-      </c>
       <c r="S173" t="n">
+        <v>1</v>
+      </c>
+      <c r="T173" t="n">
         <v>8</v>
       </c>
-      <c r="T173" t="n">
+      <c r="U173" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11123,16 +11988,21 @@
       <c r="P174" t="n">
         <v>8</v>
       </c>
-      <c r="Q174" t="n">
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
         <v>70</v>
       </c>
-      <c r="R174" t="n">
-        <v>2</v>
-      </c>
       <c r="S174" t="n">
+        <v>2</v>
+      </c>
+      <c r="T174" t="n">
         <v>8</v>
       </c>
-      <c r="T174" t="n">
+      <c r="U174" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11181,16 +12051,21 @@
       <c r="P175" t="n">
         <v>8</v>
       </c>
-      <c r="Q175" t="n">
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
         <v>70</v>
       </c>
-      <c r="R175" t="n">
-        <v>1</v>
-      </c>
       <c r="S175" t="n">
+        <v>1</v>
+      </c>
+      <c r="T175" t="n">
         <v>8</v>
       </c>
-      <c r="T175" t="n">
+      <c r="U175" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11245,16 +12120,21 @@
       <c r="P176" t="n">
         <v>3</v>
       </c>
-      <c r="Q176" t="n">
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
         <v>25</v>
       </c>
-      <c r="R176" t="n">
+      <c r="S176" t="n">
         <v>3</v>
       </c>
-      <c r="S176" t="n">
-        <v>0</v>
-      </c>
       <c r="T176" t="n">
+        <v>0</v>
+      </c>
+      <c r="U176" t="n">
         <v>5</v>
       </c>
     </row>
@@ -11303,16 +12183,21 @@
       <c r="P177" t="n">
         <v>3</v>
       </c>
-      <c r="Q177" t="n">
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
         <v>25</v>
       </c>
-      <c r="R177" t="n">
-        <v>2</v>
-      </c>
       <c r="S177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T177" t="n">
+        <v>0</v>
+      </c>
+      <c r="U177" t="n">
         <v>5</v>
       </c>
     </row>
@@ -11361,16 +12246,21 @@
       <c r="P178" t="n">
         <v>3</v>
       </c>
-      <c r="Q178" t="n">
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
         <v>25</v>
       </c>
-      <c r="R178" t="n">
-        <v>1</v>
-      </c>
       <c r="S178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T178" t="n">
+        <v>0</v>
+      </c>
+      <c r="U178" t="n">
         <v>5</v>
       </c>
     </row>
@@ -11431,16 +12321,21 @@
       <c r="P179" t="n">
         <v>3</v>
       </c>
-      <c r="Q179" t="n">
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
         <v>24</v>
       </c>
-      <c r="R179" t="n">
-        <v>1</v>
-      </c>
       <c r="S179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T179" t="n">
+        <v>0</v>
+      </c>
+      <c r="U179" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11499,16 +12394,21 @@
       <c r="P180" t="n">
         <v>4</v>
       </c>
-      <c r="Q180" t="n">
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
         <v>37</v>
       </c>
-      <c r="R180" t="n">
-        <v>1</v>
-      </c>
       <c r="S180" t="n">
         <v>1</v>
       </c>
       <c r="T180" t="n">
+        <v>1</v>
+      </c>
+      <c r="U180" t="n">
         <v>6</v>
       </c>
     </row>
@@ -11565,16 +12465,21 @@
       <c r="P181" t="n">
         <v>3</v>
       </c>
-      <c r="Q181" t="n">
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
         <v>26</v>
       </c>
-      <c r="R181" t="n">
+      <c r="S181" t="n">
         <v>4</v>
       </c>
-      <c r="S181" t="n">
+      <c r="T181" t="n">
         <v>6</v>
       </c>
-      <c r="T181" t="n">
+      <c r="U181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11625,16 +12530,21 @@
       <c r="P182" t="n">
         <v>3</v>
       </c>
-      <c r="Q182" t="n">
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
         <v>26</v>
       </c>
-      <c r="R182" t="n">
+      <c r="S182" t="n">
         <v>3</v>
       </c>
-      <c r="S182" t="n">
+      <c r="T182" t="n">
         <v>6</v>
       </c>
-      <c r="T182" t="n">
+      <c r="U182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11685,16 +12595,21 @@
       <c r="P183" t="n">
         <v>3</v>
       </c>
-      <c r="Q183" t="n">
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
         <v>26</v>
       </c>
-      <c r="R183" t="n">
-        <v>2</v>
-      </c>
       <c r="S183" t="n">
+        <v>2</v>
+      </c>
+      <c r="T183" t="n">
         <v>6</v>
       </c>
-      <c r="T183" t="n">
+      <c r="U183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11745,16 +12660,21 @@
       <c r="P184" t="n">
         <v>3</v>
       </c>
-      <c r="Q184" t="n">
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
         <v>26</v>
       </c>
-      <c r="R184" t="n">
-        <v>1</v>
-      </c>
       <c r="S184" t="n">
+        <v>1</v>
+      </c>
+      <c r="T184" t="n">
         <v>6</v>
       </c>
-      <c r="T184" t="n">
+      <c r="U184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11815,16 +12735,21 @@
       <c r="P185" t="n">
         <v>3</v>
       </c>
-      <c r="Q185" t="n">
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
         <v>25</v>
       </c>
-      <c r="R185" t="n">
+      <c r="S185" t="n">
         <v>4</v>
       </c>
-      <c r="S185" t="n">
+      <c r="T185" t="n">
         <v>6</v>
       </c>
-      <c r="T185" t="n">
+      <c r="U185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11875,16 +12800,21 @@
       <c r="P186" t="n">
         <v>3</v>
       </c>
-      <c r="Q186" t="n">
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
         <v>25</v>
       </c>
-      <c r="R186" t="n">
+      <c r="S186" t="n">
         <v>3</v>
       </c>
-      <c r="S186" t="n">
+      <c r="T186" t="n">
         <v>6</v>
       </c>
-      <c r="T186" t="n">
+      <c r="U186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11935,16 +12865,21 @@
       <c r="P187" t="n">
         <v>3</v>
       </c>
-      <c r="Q187" t="n">
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
         <v>25</v>
       </c>
-      <c r="R187" t="n">
-        <v>2</v>
-      </c>
       <c r="S187" t="n">
+        <v>2</v>
+      </c>
+      <c r="T187" t="n">
         <v>6</v>
       </c>
-      <c r="T187" t="n">
+      <c r="U187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11995,16 +12930,21 @@
       <c r="P188" t="n">
         <v>3</v>
       </c>
-      <c r="Q188" t="n">
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
         <v>25</v>
       </c>
-      <c r="R188" t="n">
-        <v>1</v>
-      </c>
       <c r="S188" t="n">
+        <v>1</v>
+      </c>
+      <c r="T188" t="n">
         <v>6</v>
       </c>
-      <c r="T188" t="n">
+      <c r="U188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12065,16 +13005,21 @@
       <c r="P189" t="n">
         <v>5</v>
       </c>
-      <c r="Q189" t="n">
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
         <v>50</v>
       </c>
-      <c r="R189" t="n">
-        <v>2</v>
-      </c>
       <c r="S189" t="n">
+        <v>2</v>
+      </c>
+      <c r="T189" t="n">
         <v>4</v>
       </c>
-      <c r="T189" t="n">
+      <c r="U189" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12125,16 +13070,21 @@
       <c r="P190" t="n">
         <v>5</v>
       </c>
-      <c r="Q190" t="n">
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
         <v>50</v>
       </c>
-      <c r="R190" t="n">
-        <v>1</v>
-      </c>
       <c r="S190" t="n">
+        <v>1</v>
+      </c>
+      <c r="T190" t="n">
         <v>4</v>
       </c>
-      <c r="T190" t="n">
+      <c r="U190" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12197,16 +13147,21 @@
       <c r="P191" t="n">
         <v>5</v>
       </c>
-      <c r="Q191" t="n">
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
         <v>49</v>
-      </c>
-      <c r="R191" t="n">
-        <v>3</v>
       </c>
       <c r="S191" t="n">
         <v>3</v>
       </c>
       <c r="T191" t="n">
+        <v>3</v>
+      </c>
+      <c r="U191" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12259,16 +13214,21 @@
       <c r="P192" t="n">
         <v>5</v>
       </c>
-      <c r="Q192" t="n">
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
         <v>49</v>
       </c>
-      <c r="R192" t="n">
-        <v>2</v>
-      </c>
       <c r="S192" t="n">
+        <v>2</v>
+      </c>
+      <c r="T192" t="n">
         <v>3</v>
       </c>
-      <c r="T192" t="n">
+      <c r="U192" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12321,16 +13281,21 @@
       <c r="P193" t="n">
         <v>5</v>
       </c>
-      <c r="Q193" t="n">
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
         <v>49</v>
       </c>
-      <c r="R193" t="n">
-        <v>1</v>
-      </c>
       <c r="S193" t="n">
+        <v>1</v>
+      </c>
+      <c r="T193" t="n">
         <v>3</v>
       </c>
-      <c r="T193" t="n">
+      <c r="U193" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12391,16 +13356,21 @@
       <c r="P194" t="n">
         <v>5</v>
       </c>
-      <c r="Q194" t="n">
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
         <v>48</v>
       </c>
-      <c r="R194" t="n">
-        <v>1</v>
-      </c>
       <c r="S194" t="n">
+        <v>1</v>
+      </c>
+      <c r="T194" t="n">
         <v>3</v>
       </c>
-      <c r="T194" t="n">
+      <c r="U194" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12461,16 +13431,21 @@
       <c r="P195" t="n">
         <v>5</v>
       </c>
-      <c r="Q195" t="n">
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
         <v>47</v>
       </c>
-      <c r="R195" t="n">
+      <c r="S195" t="n">
         <v>5</v>
       </c>
-      <c r="S195" t="n">
+      <c r="T195" t="n">
         <v>3</v>
       </c>
-      <c r="T195" t="n">
+      <c r="U195" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12521,16 +13496,21 @@
       <c r="P196" t="n">
         <v>5</v>
       </c>
-      <c r="Q196" t="n">
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
         <v>47</v>
       </c>
-      <c r="R196" t="n">
+      <c r="S196" t="n">
         <v>4</v>
       </c>
-      <c r="S196" t="n">
+      <c r="T196" t="n">
         <v>3</v>
       </c>
-      <c r="T196" t="n">
+      <c r="U196" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12581,16 +13561,21 @@
       <c r="P197" t="n">
         <v>5</v>
       </c>
-      <c r="Q197" t="n">
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
         <v>47</v>
-      </c>
-      <c r="R197" t="n">
-        <v>3</v>
       </c>
       <c r="S197" t="n">
         <v>3</v>
       </c>
       <c r="T197" t="n">
+        <v>3</v>
+      </c>
+      <c r="U197" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12641,16 +13626,21 @@
       <c r="P198" t="n">
         <v>5</v>
       </c>
-      <c r="Q198" t="n">
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
         <v>47</v>
       </c>
-      <c r="R198" t="n">
-        <v>2</v>
-      </c>
       <c r="S198" t="n">
+        <v>2</v>
+      </c>
+      <c r="T198" t="n">
         <v>3</v>
       </c>
-      <c r="T198" t="n">
+      <c r="U198" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12701,16 +13691,21 @@
       <c r="P199" t="n">
         <v>5</v>
       </c>
-      <c r="Q199" t="n">
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
         <v>47</v>
       </c>
-      <c r="R199" t="n">
-        <v>1</v>
-      </c>
       <c r="S199" t="n">
+        <v>1</v>
+      </c>
+      <c r="T199" t="n">
         <v>3</v>
       </c>
-      <c r="T199" t="n">
+      <c r="U199" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12771,16 +13766,21 @@
       <c r="P200" t="n">
         <v>5</v>
       </c>
-      <c r="Q200" t="n">
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
         <v>46</v>
       </c>
-      <c r="R200" t="n">
+      <c r="S200" t="n">
         <v>3</v>
       </c>
-      <c r="S200" t="n">
-        <v>2</v>
-      </c>
       <c r="T200" t="n">
+        <v>2</v>
+      </c>
+      <c r="U200" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12831,16 +13831,21 @@
       <c r="P201" t="n">
         <v>5</v>
       </c>
-      <c r="Q201" t="n">
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
         <v>46</v>
       </c>
-      <c r="R201" t="n">
-        <v>2</v>
-      </c>
       <c r="S201" t="n">
         <v>2</v>
       </c>
       <c r="T201" t="n">
+        <v>2</v>
+      </c>
+      <c r="U201" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12891,16 +13896,21 @@
       <c r="P202" t="n">
         <v>5</v>
       </c>
-      <c r="Q202" t="n">
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
         <v>46</v>
       </c>
-      <c r="R202" t="n">
-        <v>1</v>
-      </c>
       <c r="S202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T202" t="n">
+        <v>2</v>
+      </c>
+      <c r="U202" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12959,16 +13969,21 @@
       <c r="P203" t="n">
         <v>5</v>
       </c>
-      <c r="Q203" t="n">
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
         <v>45</v>
       </c>
-      <c r="R203" t="n">
-        <v>2</v>
-      </c>
       <c r="S203" t="n">
         <v>2</v>
       </c>
       <c r="T203" t="n">
+        <v>2</v>
+      </c>
+      <c r="U203" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13017,16 +14032,21 @@
       <c r="P204" t="n">
         <v>5</v>
       </c>
-      <c r="Q204" t="n">
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
         <v>45</v>
       </c>
-      <c r="R204" t="n">
-        <v>1</v>
-      </c>
       <c r="S204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T204" t="n">
+        <v>2</v>
+      </c>
+      <c r="U204" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13085,16 +14105,21 @@
       <c r="P205" t="n">
         <v>5</v>
       </c>
-      <c r="Q205" t="n">
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
         <v>31</v>
       </c>
-      <c r="R205" t="n">
-        <v>1</v>
-      </c>
       <c r="S205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T205" t="n">
+        <v>0</v>
+      </c>
+      <c r="U205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13145,16 +14170,21 @@
       <c r="P206" t="n">
         <v>5</v>
       </c>
-      <c r="Q206" t="n">
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
         <v>30</v>
       </c>
-      <c r="R206" t="n">
+      <c r="S206" t="n">
         <v>4</v>
       </c>
-      <c r="S206" t="n">
-        <v>0</v>
-      </c>
       <c r="T206" t="n">
+        <v>0</v>
+      </c>
+      <c r="U206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13201,16 +14231,21 @@
       <c r="P207" t="n">
         <v>5</v>
       </c>
-      <c r="Q207" t="n">
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
         <v>30</v>
       </c>
-      <c r="R207" t="n">
+      <c r="S207" t="n">
         <v>3</v>
       </c>
-      <c r="S207" t="n">
-        <v>0</v>
-      </c>
       <c r="T207" t="n">
+        <v>0</v>
+      </c>
+      <c r="U207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13257,16 +14292,21 @@
       <c r="P208" t="n">
         <v>5</v>
       </c>
-      <c r="Q208" t="n">
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
         <v>30</v>
       </c>
-      <c r="R208" t="n">
-        <v>2</v>
-      </c>
       <c r="S208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T208" t="n">
+        <v>0</v>
+      </c>
+      <c r="U208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13313,16 +14353,21 @@
       <c r="P209" t="n">
         <v>5</v>
       </c>
-      <c r="Q209" t="n">
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
         <v>30</v>
       </c>
-      <c r="R209" t="n">
-        <v>1</v>
-      </c>
       <c r="S209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T209" t="n">
+        <v>0</v>
+      </c>
+      <c r="U209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13379,16 +14424,21 @@
       <c r="P210" t="n">
         <v>5</v>
       </c>
-      <c r="Q210" t="n">
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
         <v>29</v>
       </c>
-      <c r="R210" t="n">
-        <v>1</v>
-      </c>
       <c r="S210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T210" t="n">
+        <v>0</v>
+      </c>
+      <c r="U210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13445,16 +14495,21 @@
       <c r="P211" t="n">
         <v>5</v>
       </c>
-      <c r="Q211" t="n">
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
         <v>28</v>
       </c>
-      <c r="R211" t="n">
-        <v>1</v>
-      </c>
       <c r="S211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T211" t="n">
+        <v>0</v>
+      </c>
+      <c r="U211" t="n">
         <v>1</v>
       </c>
     </row>
